--- a/stock_predictor_ai/data/cleaned/CEG.xlsx
+++ b/stock_predictor_ai/data/cleaned/CEG.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F858"/>
+  <dimension ref="A1:F859"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17609,6 +17609,26 @@
         <v>196985</v>
       </c>
     </row>
+    <row r="859">
+      <c r="A859" s="2" t="n">
+        <v>45847</v>
+      </c>
+      <c r="B859" t="n">
+        <v>312.4800109863281</v>
+      </c>
+      <c r="C859" t="n">
+        <v>313.9500122070312</v>
+      </c>
+      <c r="D859" t="n">
+        <v>311.010009765625</v>
+      </c>
+      <c r="E859" t="n">
+        <v>313.2200012207031</v>
+      </c>
+      <c r="F859" t="n">
+        <v>167479</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_predictor_ai/data/cleaned/CEG.xlsx
+++ b/stock_predictor_ai/data/cleaned/CEG.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F859"/>
+  <dimension ref="A1:F860"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17629,6 +17629,26 @@
         <v>167479</v>
       </c>
     </row>
+    <row r="860">
+      <c r="A860" s="2" t="n">
+        <v>45853</v>
+      </c>
+      <c r="B860" t="n">
+        <v>317.989990234375</v>
+      </c>
+      <c r="C860" t="n">
+        <v>327.989990234375</v>
+      </c>
+      <c r="D860" t="n">
+        <v>314.2000122070312</v>
+      </c>
+      <c r="E860" t="n">
+        <v>327.5799865722656</v>
+      </c>
+      <c r="F860" t="n">
+        <v>2741000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_predictor_ai/data/cleaned/CEG.xlsx
+++ b/stock_predictor_ai/data/cleaned/CEG.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F860"/>
+  <dimension ref="A1:F861"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17649,6 +17649,26 @@
         <v>2741000</v>
       </c>
     </row>
+    <row r="861">
+      <c r="A861" s="2" t="n">
+        <v>45859</v>
+      </c>
+      <c r="B861" t="n">
+        <v>322.5750122070312</v>
+      </c>
+      <c r="C861" t="n">
+        <v>325.443115234375</v>
+      </c>
+      <c r="D861" t="n">
+        <v>318.7048034667969</v>
+      </c>
+      <c r="E861" t="n">
+        <v>324.4200134277344</v>
+      </c>
+      <c r="F861" t="n">
+        <v>441704</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_predictor_ai/data/cleaned/CEG.xlsx
+++ b/stock_predictor_ai/data/cleaned/CEG.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F861"/>
+  <dimension ref="A1:F862"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17669,6 +17669,26 @@
         <v>441704</v>
       </c>
     </row>
+    <row r="862">
+      <c r="A862" s="2" t="n">
+        <v>45902</v>
+      </c>
+      <c r="B862" t="n">
+        <v>304.4599914550781</v>
+      </c>
+      <c r="C862" t="n">
+        <v>305.1099853515625</v>
+      </c>
+      <c r="D862" t="n">
+        <v>296.9901123046875</v>
+      </c>
+      <c r="E862" t="n">
+        <v>300.489990234375</v>
+      </c>
+      <c r="F862" t="n">
+        <v>1215648</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_predictor_ai/data/cleaned/CEG.xlsx
+++ b/stock_predictor_ai/data/cleaned/CEG.xlsx
@@ -63,7 +63,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -429,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F862"/>
+  <dimension ref="A1:F857"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -17589,106 +17591,6 @@
         <v>2155700</v>
       </c>
     </row>
-    <row r="858">
-      <c r="A858" s="2" t="n">
-        <v>45841</v>
-      </c>
-      <c r="B858" t="n">
-        <v>311.0799865722656</v>
-      </c>
-      <c r="C858" t="n">
-        <v>312.1199951171875</v>
-      </c>
-      <c r="D858" t="n">
-        <v>306.4476013183594</v>
-      </c>
-      <c r="E858" t="n">
-        <v>308.1600036621094</v>
-      </c>
-      <c r="F858" t="n">
-        <v>196985</v>
-      </c>
-    </row>
-    <row r="859">
-      <c r="A859" s="2" t="n">
-        <v>45847</v>
-      </c>
-      <c r="B859" t="n">
-        <v>312.4800109863281</v>
-      </c>
-      <c r="C859" t="n">
-        <v>313.9500122070312</v>
-      </c>
-      <c r="D859" t="n">
-        <v>311.010009765625</v>
-      </c>
-      <c r="E859" t="n">
-        <v>313.2200012207031</v>
-      </c>
-      <c r="F859" t="n">
-        <v>167479</v>
-      </c>
-    </row>
-    <row r="860">
-      <c r="A860" s="2" t="n">
-        <v>45853</v>
-      </c>
-      <c r="B860" t="n">
-        <v>317.989990234375</v>
-      </c>
-      <c r="C860" t="n">
-        <v>327.989990234375</v>
-      </c>
-      <c r="D860" t="n">
-        <v>314.2000122070312</v>
-      </c>
-      <c r="E860" t="n">
-        <v>327.5799865722656</v>
-      </c>
-      <c r="F860" t="n">
-        <v>2741000</v>
-      </c>
-    </row>
-    <row r="861">
-      <c r="A861" s="2" t="n">
-        <v>45859</v>
-      </c>
-      <c r="B861" t="n">
-        <v>322.5750122070312</v>
-      </c>
-      <c r="C861" t="n">
-        <v>325.443115234375</v>
-      </c>
-      <c r="D861" t="n">
-        <v>318.7048034667969</v>
-      </c>
-      <c r="E861" t="n">
-        <v>324.4200134277344</v>
-      </c>
-      <c r="F861" t="n">
-        <v>441704</v>
-      </c>
-    </row>
-    <row r="862">
-      <c r="A862" s="2" t="n">
-        <v>45902</v>
-      </c>
-      <c r="B862" t="n">
-        <v>304.4599914550781</v>
-      </c>
-      <c r="C862" t="n">
-        <v>305.1099853515625</v>
-      </c>
-      <c r="D862" t="n">
-        <v>296.9901123046875</v>
-      </c>
-      <c r="E862" t="n">
-        <v>300.489990234375</v>
-      </c>
-      <c r="F862" t="n">
-        <v>1215648</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
